--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_79.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_79.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yosuke Saito</t>
+          <t>Yuki Yamaguchi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
